--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t xml:space="preserve">ACK </t>
   </si>
@@ -30,66 +30,82 @@
     <t xml:space="preserve">Volumn Value Transit </t>
   </si>
   <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STX(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Src(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmd(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data(42)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chk(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETX(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(2)+min(2)+sec(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Led State Receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Time Transit</t>
-  </si>
-  <si>
-    <t>0x02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RACK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Packet Format</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STX(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Src(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cmd(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data(42)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chk(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETX(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(2)+min(2)+sec(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Led State Receive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +138,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -413,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,15 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,6 +498,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J10"/>
+  <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -791,46 +825,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" thickBot="1"/>
-    <row r="2" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1">
-      <c r="B2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
+    <row r="2" spans="2:10" ht="28.2" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="H3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="I3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="J3" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" thickTop="1">
@@ -838,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -846,148 +880,191 @@
       <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="20">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19"/>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18" thickBot="1">
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
         <v>6</v>
       </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="2:10" ht="18" thickBot="1">
-      <c r="B9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="22">
-        <v>40</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="18" thickTop="1"/>
+    <row r="11" spans="2:10" ht="18" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
